--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s0_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2853.30270014152</v>
+        <v>846.3608161563617</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8069999217987061</v>
+        <v>0.5750000476837158</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.21912491467956</v>
+        <v>40.44265157269915</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.1411472999683</v>
+        <v>2.717891874388624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.09472252681576</v>
+        <v>2.63605645805116</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2412.400000000008</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>408.7299999999847</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,89 +595,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -951,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.361415491259855</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.32179317403575</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.37739353073907</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>24.57220118279979</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.13729949371544</v>
+        <v>21.83833944525709</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,13 +968,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1059,13 +982,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1073,225 +996,15 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1394,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000181</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -1405,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000282</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1416,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1427,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000269</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000282</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>229.35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1460,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>238.9250000000054</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1471,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>240.6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1482,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>250.7050000000016</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1493,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>245.3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1504,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>208.059999999999</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1515,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>189.4349999999999</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1526,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.7149999999996</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1537,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.8399999999988</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1548,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.2699999999994</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1559,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.5149999999994</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
@@ -1581,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -1592,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.744999999999</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26">
@@ -1603,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
@@ -1614,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>123.0900000000007</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -1625,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>129.0600000000049</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -1636,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>132.8750000000031</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
@@ -1647,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>138.7450000000006</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -1658,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>134.35</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -1669,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>229.35</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -1680,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>238.9250000000054</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -1691,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>240.6</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -1702,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>250.7050000000016</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1713,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>245.3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -1724,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.0599999999995</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38">
@@ -1735,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999999</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -1746,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.7149999999996</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40">
@@ -1757,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999988</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41">
@@ -1768,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.2699999999994</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>129.35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1826,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>138.9250000000054</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1837,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>140.6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1848,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>150.7050000000015</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1859,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>145.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1870,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>108.0599999999995</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -1881,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>89.43499999999986</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1892,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>106.7149999999996</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -1903,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>93.83999999999882</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1914,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>103.2699999999994</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.31499999999884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1972,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1983,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.23999999999771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1994,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.56999999999798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2005,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.88999999999784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2016,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2027,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2038,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2049,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2060,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2071,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2082,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2093,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2104,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2115,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2181,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2192,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2203,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2214,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2225,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,7 +1979,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2277,7 +1990,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2288,7 +2001,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2299,7 +2012,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2310,7 +2023,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2321,7 +2034,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2332,7 +2045,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2343,7 +2056,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2354,7 +2067,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2365,7 +2078,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2376,100 +2089,12 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
